--- a/Master.xlsx
+++ b/Master.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\code\stm32\msp\project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1067A91-4D2E-4C25-9038-D2C90B67D185}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F24587E4-F36B-4584-AA2C-14836BE4C43B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{6005BB0A-3150-4474-A533-73619529BE11}"/>
+    <workbookView xWindow="10680" yWindow="1008" windowWidth="11520" windowHeight="8964" xr2:uid="{6005BB0A-3150-4474-A533-73619529BE11}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,11 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
-  <si>
-    <t>18~19</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="15">
   <si>
     <t>MaxTurn1</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -78,6 +74,22 @@
   </si>
   <si>
     <t>length</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>外（5.4）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>从车</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>~~</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>主车</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -451,67 +463,67 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5FA83824-3070-4B04-A93E-BB8A19E1585A}">
-  <dimension ref="A1:K3"/>
+  <dimension ref="A1:L4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J8" sqref="J8"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="G7" sqref="F7:G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>2</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>3</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>4</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>5</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>6</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>7</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>8</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>9</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>10</v>
       </c>
-      <c r="K1" t="s">
+    </row>
+    <row r="2" spans="1:12" ht="15" x14ac:dyDescent="0.25">
+      <c r="A2" s="1">
+        <v>1500</v>
+      </c>
+      <c r="B2">
+        <v>2000</v>
+      </c>
+      <c r="C2">
+        <v>200</v>
+      </c>
+      <c r="D2">
+        <v>400</v>
+      </c>
+      <c r="E2">
         <v>11</v>
       </c>
-    </row>
-    <row r="2" spans="1:11" ht="15" x14ac:dyDescent="0.25">
-      <c r="A2" s="1">
-        <v>2700</v>
-      </c>
-      <c r="B2">
-        <v>2700</v>
-      </c>
-      <c r="C2">
-        <v>300</v>
-      </c>
-      <c r="D2">
-        <v>600</v>
-      </c>
-      <c r="E2">
-        <v>10</v>
-      </c>
       <c r="F2">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G2">
         <v>10</v>
@@ -520,18 +532,21 @@
         <v>100</v>
       </c>
       <c r="I2">
-        <v>20</v>
-      </c>
-      <c r="J2" t="s">
-        <v>0</v>
-      </c>
-      <c r="K2">
-        <v>4.8</v>
+        <v>25</v>
+      </c>
+      <c r="J2">
+        <v>18</v>
+      </c>
+      <c r="K2" t="s">
+        <v>11</v>
+      </c>
+      <c r="L2" t="s">
+        <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3">
-        <v>2700</v>
+        <v>1200</v>
       </c>
       <c r="B3">
         <v>2000</v>
@@ -540,13 +555,13 @@
         <v>180</v>
       </c>
       <c r="D3">
-        <v>600</v>
+        <v>400</v>
       </c>
       <c r="E3">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="F3">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="G3">
         <v>10</v>
@@ -557,11 +572,52 @@
       <c r="I3">
         <v>27</v>
       </c>
-      <c r="J3">
+      <c r="J3" t="s">
+        <v>13</v>
+      </c>
+      <c r="K3" t="s">
+        <v>13</v>
+      </c>
+      <c r="L3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>1500</v>
+      </c>
+      <c r="B4">
+        <v>2000</v>
+      </c>
+      <c r="C4">
+        <v>200</v>
+      </c>
+      <c r="D4">
+        <v>1700</v>
+      </c>
+      <c r="E4">
+        <v>20</v>
+      </c>
+      <c r="F4">
+        <v>17</v>
+      </c>
+      <c r="G4">
         <v>15</v>
       </c>
-      <c r="K3">
-        <v>5.4</v>
+      <c r="H4">
+        <v>100</v>
+      </c>
+      <c r="I4">
+        <v>22</v>
+      </c>
+      <c r="J4">
+        <v>11</v>
+      </c>
+      <c r="K4" t="s">
+        <v>11</v>
+      </c>
+      <c r="L4" t="s">
+        <v>12</v>
       </c>
     </row>
   </sheetData>

--- a/Master.xlsx
+++ b/Master.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\code\stm32\msp\project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F24587E4-F36B-4584-AA2C-14836BE4C43B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0122EB0E-BA9D-4E09-A01C-55244DBBC093}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10680" yWindow="1008" windowWidth="11520" windowHeight="8964" xr2:uid="{6005BB0A-3150-4474-A533-73619529BE11}"/>
+    <workbookView xWindow="10572" yWindow="1440" windowWidth="11520" windowHeight="8964" xr2:uid="{6005BB0A-3150-4474-A533-73619529BE11}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="17">
   <si>
     <t>MaxTurn1</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -91,6 +91,12 @@
   <si>
     <t>主车</t>
     <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>CrossAccelerateTimes</t>
+  </si>
+  <si>
+    <t>DecelerationTimes</t>
   </si>
 </sst>
 </file>
@@ -463,15 +469,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5FA83824-3070-4B04-A93E-BB8A19E1585A}">
-  <dimension ref="A1:L4"/>
+  <dimension ref="A1:N5"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="G7" sqref="F7:G7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -505,8 +511,14 @@
       <c r="K1" t="s">
         <v>10</v>
       </c>
+      <c r="M1" t="s">
+        <v>15</v>
+      </c>
+      <c r="N1" t="s">
+        <v>16</v>
+      </c>
     </row>
-    <row r="2" spans="1:12" ht="15" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:14" ht="15" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>1500</v>
       </c>
@@ -544,7 +556,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1200</v>
       </c>
@@ -582,7 +594,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>1500</v>
       </c>
@@ -618,6 +630,50 @@
       </c>
       <c r="L4" t="s">
         <v>12</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>1500</v>
+      </c>
+      <c r="B5">
+        <v>2000</v>
+      </c>
+      <c r="C5">
+        <v>250</v>
+      </c>
+      <c r="D5">
+        <v>1800</v>
+      </c>
+      <c r="E5">
+        <v>22</v>
+      </c>
+      <c r="F5">
+        <v>20</v>
+      </c>
+      <c r="G5">
+        <v>14</v>
+      </c>
+      <c r="H5">
+        <v>100</v>
+      </c>
+      <c r="I5">
+        <v>22</v>
+      </c>
+      <c r="J5">
+        <v>11.6</v>
+      </c>
+      <c r="K5" t="s">
+        <v>11</v>
+      </c>
+      <c r="L5" t="s">
+        <v>12</v>
+      </c>
+      <c r="M5">
+        <v>80</v>
+      </c>
+      <c r="N5">
+        <v>10</v>
       </c>
     </row>
   </sheetData>

--- a/Master.xlsx
+++ b/Master.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\code\stm32\msp\project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0122EB0E-BA9D-4E09-A01C-55244DBBC093}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27B5481C-2EE0-4A26-8C1E-F873AF4C2D23}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10572" yWindow="1440" windowWidth="11520" windowHeight="8964" xr2:uid="{6005BB0A-3150-4474-A533-73619529BE11}"/>
+    <workbookView xWindow="11112" yWindow="636" windowWidth="11520" windowHeight="8964" xr2:uid="{6005BB0A-3150-4474-A533-73619529BE11}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -469,10 +469,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5FA83824-3070-4B04-A93E-BB8A19E1585A}">
-  <dimension ref="A1:N5"/>
+  <dimension ref="A1:N6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="K3" sqref="K3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -676,6 +676,41 @@
         <v>10</v>
       </c>
     </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>1500</v>
+      </c>
+      <c r="B6">
+        <v>2000</v>
+      </c>
+      <c r="C6">
+        <v>250</v>
+      </c>
+      <c r="D6">
+        <v>1800</v>
+      </c>
+      <c r="E6">
+        <v>11</v>
+      </c>
+      <c r="F6">
+        <v>11</v>
+      </c>
+      <c r="G6">
+        <v>10</v>
+      </c>
+      <c r="H6">
+        <v>100</v>
+      </c>
+      <c r="I6">
+        <v>22</v>
+      </c>
+      <c r="M6">
+        <v>160</v>
+      </c>
+      <c r="N6">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
